--- a/frontend/web/download/2019-09-14to2019-09-14.xlsx
+++ b/frontend/web/download/2019-09-14to2019-09-14.xlsx
@@ -29,7 +29,7 @@
     <t>Стоимость</t>
   </si>
   <si>
-    <t>тест2</t>
+    <t>тест3</t>
   </si>
   <si>
     <t>....hhhhh</t>
@@ -419,10 +419,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,21 +470,49 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="C4" t="s">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <f>SUM(D2:D3)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <f>(D4/100) * 20</f>
-        <v>40</v>
+      <c r="D7">
+        <f>(D6/100) * 20</f>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
